--- a/Risk-Management.xlsx
+++ b/Risk-Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liadnehemia/Documents/GitHub/Doctors2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0E85FC-F28C-A04B-85DC-17C98ECA0CB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4C55A2-B9F8-3E47-8BCB-B54E1726CB58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12100" yWindow="820" windowWidth="22860" windowHeight="17360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1239,132 +1239,111 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1377,62 +1356,71 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1466,6 +1454,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1777,8 +1777,8 @@
   <dimension ref="B1:E92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="178" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1806,82 +1806,82 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="2:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
     </row>
     <row r="5" spans="2:5" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="86"/>
     </row>
     <row r="6" spans="2:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79" t="s">
+      <c r="C6" s="98"/>
+      <c r="D6" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="80"/>
+      <c r="E6" s="100"/>
     </row>
     <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="101" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="82"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
     </row>
     <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="82"/>
-      <c r="C9" s="93" t="s">
+      <c r="B9" s="102"/>
+      <c r="C9" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="69"/>
+      <c r="E9" s="90"/>
     </row>
     <row r="10" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="82"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
     </row>
     <row r="11" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="83"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
     </row>
     <row r="12" spans="2:5" s="3" customFormat="1" ht="8" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
@@ -1890,18 +1890,18 @@
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="73"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="11" t="s">
         <v>7</v>
       </c>
@@ -1910,10 +1910,10 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="74">
-        <v>1</v>
-      </c>
-      <c r="C15" s="75"/>
+      <c r="B15" s="95">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C15" s="96"/>
       <c r="D15" s="13" t="s">
         <v>74</v>
       </c>
@@ -1922,18 +1922,18 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
     </row>
     <row r="17" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="60"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="11" t="s">
         <v>14</v>
       </c>
@@ -1942,10 +1942,10 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="86"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="13" t="s">
         <v>74</v>
       </c>
@@ -1954,20 +1954,20 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="13"/>
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="13"/>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="13"/>
       <c r="E21" s="12"/>
     </row>
@@ -1978,58 +1978,58 @@
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
     </row>
     <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="62"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="100"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="62"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
     </row>
     <row r="27" spans="2:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="98" t="s">
+      <c r="B27" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="100"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
     </row>
     <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="97"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
     </row>
     <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="88"/>
+      <c r="C29" s="81"/>
       <c r="D29" s="10" t="s">
         <v>6</v>
       </c>
@@ -2038,48 +2038,48 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="58"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="13"/>
       <c r="E30" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="57"/>
-      <c r="C31" s="58"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="13"/>
       <c r="E31" s="12"/>
     </row>
     <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="57"/>
-      <c r="C32" s="58"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="13"/>
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="57"/>
-      <c r="C33" s="58"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="13"/>
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="62"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="51"/>
     </row>
     <row r="35" spans="2:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="100"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="57"/>
     </row>
     <row r="36" spans="2:5" s="3" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
@@ -2088,18 +2088,18 @@
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="2:5" s="40" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
     </row>
     <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="62"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="9" t="s">
         <v>25</v>
       </c>
@@ -2108,10 +2108,10 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="58"/>
+      <c r="C39" s="60"/>
       <c r="D39" s="13" t="s">
         <v>68</v>
       </c>
@@ -2120,44 +2120,44 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="57"/>
-      <c r="C40" s="58"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="60"/>
       <c r="D40" s="13"/>
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="57"/>
-      <c r="C41" s="58"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="13"/>
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="57"/>
-      <c r="C42" s="58"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="13"/>
       <c r="E42" s="12"/>
     </row>
     <row r="43" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="57"/>
-      <c r="C43" s="58"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="13"/>
       <c r="E43" s="12"/>
     </row>
     <row r="44" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="57"/>
-      <c r="C44" s="58"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="13"/>
       <c r="E44" s="12"/>
     </row>
     <row r="45" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="57"/>
-      <c r="C45" s="58"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="60"/>
       <c r="D45" s="13"/>
       <c r="E45" s="12"/>
     </row>
     <row r="46" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="57"/>
-      <c r="C46" s="58"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="60"/>
       <c r="D46" s="13"/>
       <c r="E46" s="12"/>
     </row>
@@ -2168,18 +2168,18 @@
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="76" t="s">
+      <c r="B48" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
     </row>
     <row r="49" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="62"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="9" t="s">
         <v>29</v>
       </c>
@@ -2188,10 +2188,10 @@
       </c>
     </row>
     <row r="50" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="58"/>
+      <c r="C50" s="60"/>
       <c r="D50" s="13" t="s">
         <v>34</v>
       </c>
@@ -2200,44 +2200,44 @@
       </c>
     </row>
     <row r="51" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="57"/>
-      <c r="C51" s="58"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="60"/>
       <c r="D51" s="13"/>
       <c r="E51" s="12"/>
     </row>
     <row r="52" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="57"/>
-      <c r="C52" s="58"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="60"/>
       <c r="D52" s="13"/>
       <c r="E52" s="12"/>
     </row>
     <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="57"/>
-      <c r="C53" s="58"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="60"/>
       <c r="D53" s="13"/>
       <c r="E53" s="12"/>
     </row>
     <row r="54" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="57"/>
-      <c r="C54" s="58"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="60"/>
       <c r="D54" s="13"/>
       <c r="E54" s="12"/>
     </row>
     <row r="55" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="57"/>
-      <c r="C55" s="58"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="60"/>
       <c r="D55" s="13"/>
       <c r="E55" s="12"/>
     </row>
     <row r="56" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="57"/>
-      <c r="C56" s="58"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="60"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
     </row>
     <row r="57" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="57"/>
-      <c r="C57" s="58"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="60"/>
       <c r="D57" s="35"/>
       <c r="E57" s="34"/>
     </row>
@@ -2248,314 +2248,366 @@
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="76" t="s">
+      <c r="B59" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
     </row>
     <row r="60" spans="2:5" s="40" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="84" t="s">
+      <c r="B60" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
     </row>
     <row r="61" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="52" t="s">
+      <c r="C61" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="53"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="39" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="50"/>
-      <c r="D62" s="45" t="s">
+      <c r="C62" s="76"/>
+      <c r="D62" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="E62" s="45"/>
+      <c r="E62" s="71"/>
     </row>
     <row r="63" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="49" t="s">
+      <c r="B63" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="45" t="s">
+      <c r="C63" s="70"/>
+      <c r="D63" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="E63" s="45"/>
+      <c r="E63" s="71"/>
     </row>
     <row r="64" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="54" t="s">
+      <c r="B64" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="55"/>
-      <c r="D64" s="48" t="s">
+      <c r="C64" s="65"/>
+      <c r="D64" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="E64" s="48"/>
+      <c r="E64" s="66"/>
     </row>
     <row r="65" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="52"/>
-      <c r="D65" s="53"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="68"/>
       <c r="E65" s="38" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="C66" s="56"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
     </row>
     <row r="67" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="43" t="s">
+      <c r="B67" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="44"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
     </row>
     <row r="68" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="47"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
     </row>
     <row r="69" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="52"/>
-      <c r="D69" s="53"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="68"/>
       <c r="E69" s="39" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="49" t="s">
+      <c r="B70" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="50"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
     </row>
     <row r="71" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="51"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
     </row>
     <row r="72" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="54" t="s">
+      <c r="B72" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="55"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
     </row>
     <row r="73" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="52"/>
-      <c r="D73" s="53"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="68"/>
       <c r="E73" s="38" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="C74" s="56"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="45"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
     </row>
     <row r="75" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C75" s="44"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="71"/>
     </row>
     <row r="76" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="47"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="48"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
     </row>
     <row r="77" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C77" s="52"/>
-      <c r="D77" s="53"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="68"/>
       <c r="E77" s="39" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="49" t="s">
+      <c r="B78" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="50"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="45"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="71"/>
     </row>
     <row r="79" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="49" t="s">
+      <c r="B79" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C79" s="51"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="71"/>
     </row>
     <row r="80" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="54" t="s">
+      <c r="B80" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="55"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="48"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="66"/>
     </row>
     <row r="81" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C81" s="52"/>
-      <c r="D81" s="53"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="68"/>
       <c r="E81" s="38" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="43" t="s">
+      <c r="B82" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="C82" s="56"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="45"/>
+      <c r="C82" s="77"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="71"/>
     </row>
     <row r="83" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="43" t="s">
+      <c r="B83" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C83" s="44"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="45"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="71"/>
+      <c r="E83" s="71"/>
     </row>
     <row r="84" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="46" t="s">
+      <c r="B84" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
     </row>
     <row r="85" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C85" s="52"/>
-      <c r="D85" s="53"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="68"/>
       <c r="E85" s="39" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="49" t="s">
+      <c r="B86" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="50"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
     </row>
     <row r="87" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="49" t="s">
+      <c r="B87" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C87" s="51"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="71"/>
+      <c r="E87" s="71"/>
     </row>
     <row r="88" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="54" t="s">
+      <c r="B88" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C88" s="55"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="66"/>
     </row>
     <row r="89" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C89" s="52"/>
-      <c r="D89" s="53"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="68"/>
       <c r="E89" s="38" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="90" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="C90" s="56"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
+      <c r="C90" s="77"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="71"/>
     </row>
     <row r="91" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="43" t="s">
+      <c r="B91" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C91" s="44"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
+      <c r="C91" s="75"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="71"/>
     </row>
     <row r="92" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="46" t="s">
+      <c r="B92" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="C92" s="47"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="48"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="D72:E72"/>
     <mergeCell ref="C69:D69"/>
@@ -2580,25 +2632,18 @@
     <mergeCell ref="B60:E60"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="D7:E7"/>
@@ -2610,51 +2655,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="C85:D85"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
@@ -2696,28 +2696,28 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
     </row>
     <row r="4" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="109" t="s">
+      <c r="B4" s="110"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
     </row>
     <row r="5" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="113"/>
       <c r="D5" s="19" t="s">
         <v>32</v>
       </c>
@@ -2732,7 +2732,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="108" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -2752,7 +2752,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="113"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="18" t="s">
         <v>33</v>
       </c>
@@ -2770,7 +2770,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="113"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="18" t="s">
         <v>34</v>
       </c>
@@ -2792,96 +2792,106 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
     </row>
     <row r="11" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118" t="s">
+      <c r="C11" s="114"/>
+      <c r="D11" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
     </row>
     <row r="12" spans="2:8" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="104" t="s">
+      <c r="C12" s="115"/>
+      <c r="D12" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
     </row>
     <row r="13" spans="2:8" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="105" t="s">
+      <c r="C13" s="116"/>
+      <c r="D13" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
     </row>
     <row r="14" spans="2:8" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="104" t="s">
+      <c r="C14" s="115"/>
+      <c r="D14" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
     </row>
     <row r="15" spans="2:8" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="105" t="s">
+      <c r="C15" s="116"/>
+      <c r="D15" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
     </row>
     <row r="16" spans="2:8" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="104" t="s">
+      <c r="C16" s="115"/>
+      <c r="D16" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="B6:B8"/>
@@ -2889,16 +2899,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="D11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
